--- a/examples/Qwack - CoalCurveExample.xlsx
+++ b/examples/Qwack - CoalCurveExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\qwack\qwack-master\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2070" windowWidth="19200" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,6 +218,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +536,7 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,144 +552,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="7">
         <f ca="1">TODAY()</f>
-        <v>43336</v>
-      </c>
-      <c r="P1" s="8">
-        <v>0</v>
+        <v>43354</v>
+      </c>
+      <c r="P1" s="11">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <f t="array" aca="1" ref="A2:B2" ca="1">_xll.QDates_DatesForPeriodCode(C2)</f>
+        <f t="array" ref="A2:B2">_xll.QDates_DatesForPeriodCode(C2)</f>
         <v>43313</v>
       </c>
       <c r="B2" s="7">
-        <f ca="1"/>
         <v>43343</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f ca="1">"AUG-18"</f>
+        <f>"AUG-18"</f>
         <v>AUG-18</v>
       </c>
       <c r="D2" s="5">
         <v>95.4</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C2&amp;D$1,C2,"API4","USD",D2,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>AUG-18Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C2&amp;D$1,C2,"API4","USD",D2,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>AUG-18Coal¬4</v>
       </c>
       <c r="H2" s="3">
         <v>43313</v>
       </c>
       <c r="I2" t="str">
-        <f ca="1">TEXT(H2,"MMM-YY")</f>
+        <f>TEXT(H2,"MMM-YY")</f>
         <v>Aug-18</v>
       </c>
       <c r="J2" s="7">
-        <f t="array" aca="1" ref="J2:K2" ca="1">_xll.QDates_DatesForPeriodCode(I2)</f>
+        <f t="array" ref="J2:K2">_xll.QDates_DatesForPeriodCode(I2)</f>
         <v>43313</v>
       </c>
       <c r="K2" s="7">
-        <f ca="1"/>
         <v>43343</v>
       </c>
       <c r="L2" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K2,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K2,"Friday",1)</f>
         <v>43343</v>
       </c>
       <c r="M2">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L2)</f>
-        <v>94.749999999636373</v>
+        <v>95.399999999739819</v>
       </c>
       <c r="O2" s="7">
         <f ca="1">O1+10001</f>
-        <v>53337</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
+        <v>53355</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <f t="array" aca="1" ref="A3:B3" ca="1">_xll.QDates_DatesForPeriodCode(C3)</f>
+        <f t="array" ref="A3:B3">_xll.QDates_DatesForPeriodCode(C3)</f>
         <v>43344</v>
       </c>
       <c r="B3" s="7">
-        <f ca="1"/>
         <v>43373</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f ca="1">"SEP-18"</f>
+        <f>"SEP-18"</f>
         <v>SEP-18</v>
       </c>
       <c r="D3" s="5">
         <v>94.75</v>
       </c>
       <c r="E3" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C3&amp;D$1,C3,"API4","USD",D3,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>SEP-18Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C3&amp;D$1,C3,"API4","USD",D3,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>SEP-18Coal¬3</v>
       </c>
       <c r="H3" s="3">
         <v>43344</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I54" ca="1" si="0">TEXT(H3,"MMM-YY")</f>
+        <f t="shared" ref="I3:I54" si="0">TEXT(H3,"MMM-YY")</f>
         <v>Sep-18</v>
       </c>
       <c r="J3" s="7">
-        <f t="array" aca="1" ref="J3:K3" ca="1">_xll.QDates_DatesForPeriodCode(I3)</f>
+        <f t="array" ref="J3:K3">_xll.QDates_DatesForPeriodCode(I3)</f>
         <v>43344</v>
       </c>
       <c r="K3" s="7">
-        <f ca="1"/>
         <v>43373</v>
       </c>
       <c r="L3" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K3,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K3,"Friday",1)</f>
         <v>43371</v>
       </c>
       <c r="M3">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L3)</f>
-        <v>94.749999999636373</v>
+        <v>94.749999999833847</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <f t="array" aca="1" ref="A4:B4" ca="1">_xll.QDates_DatesForPeriodCode(C4)</f>
+        <f t="array" ref="A4:B4">_xll.QDates_DatesForPeriodCode(C4)</f>
         <v>43374</v>
       </c>
       <c r="B4" s="7">
-        <f ca="1"/>
         <v>43465</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -696,44 +694,42 @@
         <v>92.25</v>
       </c>
       <c r="E4" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C4&amp;D$1,C4,"API4","USD",D4,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Q418Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C4&amp;D$1,C4,"API4","USD",D4,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Q418Coal¬3</v>
       </c>
       <c r="H4" s="3">
         <v>43374</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Oct-18</v>
       </c>
       <c r="J4" s="7">
-        <f t="array" aca="1" ref="J4:K4" ca="1">_xll.QDates_DatesForPeriodCode(I4)</f>
+        <f t="array" ref="J4:K4">_xll.QDates_DatesForPeriodCode(I4)</f>
         <v>43374</v>
       </c>
       <c r="K4" s="7">
-        <f ca="1"/>
         <v>43404</v>
       </c>
       <c r="L4" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K4,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K4,"Friday",1)</f>
         <v>43399</v>
       </c>
       <c r="M4">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L4)</f>
-        <v>93.596153845896993</v>
+        <v>93.615379924428538</v>
       </c>
       <c r="O4" t="str">
         <f ca="1">_xll.QCurves_CreateDiscountCurveFromCCRates("IRCurve",O1,O1:O2,P1:P2,"Linear")</f>
-        <v>IRCurve¬1</v>
+        <v>IRCurve¬7</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <f t="array" aca="1" ref="A5:B5" ca="1">_xll.QDates_DatesForPeriodCode(C5)</f>
+        <f t="array" ref="A5:B5">_xll.QDates_DatesForPeriodCode(C5)</f>
         <v>43466</v>
       </c>
       <c r="B5" s="7">
-        <f ca="1"/>
         <v>43555</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -743,44 +739,42 @@
         <v>89.1</v>
       </c>
       <c r="E5" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C5&amp;D$1,C5,"API4","USD",D5,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Q119Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C5&amp;D$1,C5,"API4","USD",D5,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Q119Coal¬3</v>
       </c>
       <c r="H5" s="3">
         <v>43405</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Nov-18</v>
       </c>
       <c r="J5" s="7">
-        <f t="array" aca="1" ref="J5:K5" ca="1">_xll.QDates_DatesForPeriodCode(I5)</f>
+        <f t="array" ref="J5:K5">_xll.QDates_DatesForPeriodCode(I5)</f>
         <v>43405</v>
       </c>
       <c r="K5" s="7">
-        <f ca="1"/>
         <v>43434</v>
       </c>
       <c r="L5" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K5,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K5,"Friday",1)</f>
         <v>43434</v>
       </c>
       <c r="M5">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L5)</f>
-        <v>92.153846153722768</v>
+        <v>92.15050674598929</v>
       </c>
       <c r="O5" t="str">
-        <f ca="1">_xll.QCurves_CreateSparsePriceCurveFromSwaps("CoalCurve",O1,B3:B10,E3:E10,O4,"Coal")</f>
-        <v>CoalCurve¬1</v>
+        <f ca="1">_xll.QCurves_CreateSparsePriceCurveFromSwaps("CoalCurve","API4",O1,B2:B10,E2:E10,O4,"Coal")</f>
+        <v>CoalCurve¬3</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <f t="array" aca="1" ref="A6:B6" ca="1">_xll.QDates_DatesForPeriodCode(C6)</f>
+        <f t="array" ref="A6:B6">_xll.QDates_DatesForPeriodCode(C6)</f>
         <v>43556</v>
       </c>
       <c r="B6" s="7">
-        <f ca="1"/>
         <v>43646</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -790,40 +784,38 @@
         <v>86.4</v>
       </c>
       <c r="E6" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C6&amp;D$1,C6,"API4","USD",D6,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Q219Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C6&amp;D$1,C6,"API4","USD",D6,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Q219Coal¬3</v>
       </c>
       <c r="H6" s="3">
         <v>43435</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Dec-18</v>
       </c>
       <c r="J6" s="7">
-        <f t="array" aca="1" ref="J6:K6" ca="1">_xll.QDates_DatesForPeriodCode(I6)</f>
+        <f t="array" ref="J6:K6">_xll.QDates_DatesForPeriodCode(I6)</f>
         <v>43435</v>
       </c>
       <c r="K6" s="7">
-        <f ca="1"/>
         <v>43465</v>
       </c>
       <c r="L6" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K6,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K6,"Friday",1)</f>
         <v>43462</v>
       </c>
       <c r="M6">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L6)</f>
-        <v>90.999999999983402</v>
+        <v>90.978608203237883</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <f t="array" aca="1" ref="A7:B7" ca="1">_xll.QDates_DatesForPeriodCode(C7)</f>
+        <f t="array" ref="A7:B7">_xll.QDates_DatesForPeriodCode(C7)</f>
         <v>43647</v>
       </c>
       <c r="B7" s="7">
-        <f ca="1"/>
         <v>43738</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -833,40 +825,38 @@
         <v>85.3</v>
       </c>
       <c r="E7" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C7&amp;D$1,C7,"API4","USD",D7,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Q319Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C7&amp;D$1,C7,"API4","USD",D7,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Q319Coal¬3</v>
       </c>
       <c r="H7" s="3">
         <v>43466</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jan-19</v>
       </c>
       <c r="J7" s="7">
-        <f t="array" aca="1" ref="J7:K7" ca="1">_xll.QDates_DatesForPeriodCode(I7)</f>
+        <f t="array" ref="J7:K7">_xll.QDates_DatesForPeriodCode(I7)</f>
         <v>43466</v>
       </c>
       <c r="K7" s="7">
-        <f ca="1"/>
         <v>43496</v>
       </c>
       <c r="L7" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K7,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K7,"Friday",1)</f>
         <v>43490</v>
       </c>
       <c r="M7">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L7)</f>
-        <v>90.073795180649867</v>
+        <v>90.060388431474365</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <f t="array" aca="1" ref="A8:B8" ca="1">_xll.QDates_DatesForPeriodCode(C8)</f>
+        <f t="array" ref="A8:B8">_xll.QDates_DatesForPeriodCode(C8)</f>
         <v>43739</v>
       </c>
       <c r="B8" s="7">
-        <f ca="1"/>
         <v>43830</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -876,40 +866,38 @@
         <v>84.6</v>
       </c>
       <c r="E8" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C8&amp;D$1,C8,"API4","USD",D8,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Q419Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C8&amp;D$1,C8,"API4","USD",D8,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Q419Coal¬3</v>
       </c>
       <c r="H8" s="3">
         <v>43497</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Feb-19</v>
       </c>
       <c r="J8" s="7">
-        <f t="array" aca="1" ref="J8:K8" ca="1">_xll.QDates_DatesForPeriodCode(I8)</f>
+        <f t="array" ref="J8:K8">_xll.QDates_DatesForPeriodCode(I8)</f>
         <v>43497</v>
       </c>
       <c r="K8" s="7">
-        <f ca="1"/>
         <v>43524</v>
       </c>
       <c r="L8" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K8,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K8,"Friday",1)</f>
         <v>43518</v>
       </c>
       <c r="M8">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L8)</f>
-        <v>89.174907321445033</v>
+        <v>89.172610112229393</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <f t="array" aca="1" ref="A9:B9" ca="1">_xll.QDates_DatesForPeriodCode(C9)</f>
+        <f t="array" ref="A9:B9">_xll.QDates_DatesForPeriodCode(C9)</f>
         <v>43831</v>
       </c>
       <c r="B9" s="7">
-        <f ca="1"/>
         <v>44196</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -919,40 +907,38 @@
         <v>81.849999999999994</v>
       </c>
       <c r="E9" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C9&amp;D$1,C9,"API4","USD",D9,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Cal20Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C9&amp;D$1,C9,"API4","USD",D9,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Cal20Coal¬3</v>
       </c>
       <c r="H9" s="3">
         <v>43525</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Mar-19</v>
       </c>
       <c r="J9" s="7">
-        <f t="array" aca="1" ref="J9:K9" ca="1">_xll.QDates_DatesForPeriodCode(I9)</f>
+        <f t="array" ref="J9:K9">_xll.QDates_DatesForPeriodCode(I9)</f>
         <v>43525</v>
       </c>
       <c r="K9" s="7">
-        <f ca="1"/>
         <v>43555</v>
       </c>
       <c r="L9" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K9,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K9,"Friday",1)</f>
         <v>43553</v>
       </c>
       <c r="M9">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L9)</f>
-        <v>88.051297497438995</v>
+        <v>88.06288721317317</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <f t="array" aca="1" ref="A10:B10" ca="1">_xll.QDates_DatesForPeriodCode(C10)</f>
+        <f t="array" ref="A10:B10">_xll.QDates_DatesForPeriodCode(C10)</f>
         <v>44197</v>
       </c>
       <c r="B10" s="7">
-        <f ca="1"/>
         <v>44561</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -962,61 +948,59 @@
         <v>78.7</v>
       </c>
       <c r="E10" t="str">
-        <f ca="1">_xll.QIns_CreateAsianSwap($C10&amp;D$1,C10,"API4","USD",D10,1,"Weekends","Weekends","0b","0b","Fridays")</f>
-        <v>Cal21Coal¬1</v>
+        <f ca="1">_xll.QIns_CreateMonthlyAsianSwap($C10&amp;D$1,C10,"API4","USD",D10,1,"Weekends","Weekends","0b","0b","Fridays")</f>
+        <v>Cal21Coal¬3</v>
       </c>
       <c r="H10" s="3">
         <v>43556</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Apr-19</v>
       </c>
       <c r="J10" s="7">
-        <f t="array" aca="1" ref="J10:K10" ca="1">_xll.QDates_DatesForPeriodCode(I10)</f>
+        <f t="array" ref="J10:K10">_xll.QDates_DatesForPeriodCode(I10)</f>
         <v>43556</v>
       </c>
       <c r="K10" s="7">
-        <f ca="1"/>
         <v>43585</v>
       </c>
       <c r="L10" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K10,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K10,"Friday",1)</f>
         <v>43581</v>
       </c>
       <c r="M10">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L10)</f>
-        <v>87.283721248487254</v>
+        <v>87.290077278270303</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="H11" s="3">
         <v>43586</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>May-19</v>
       </c>
       <c r="J11" s="7">
-        <f t="array" aca="1" ref="J11:K11" ca="1">_xll.QDates_DatesForPeriodCode(I11)</f>
+        <f t="array" ref="J11:K11">_xll.QDates_DatesForPeriodCode(I11)</f>
         <v>43586</v>
       </c>
       <c r="K11" s="7">
-        <f ca="1"/>
         <v>43616</v>
       </c>
       <c r="L11" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K11,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K11,"Friday",1)</f>
         <v>43616</v>
       </c>
       <c r="M11">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L11)</f>
-        <v>86.336877053668047</v>
+        <v>86.335119511982313</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1024,24 +1008,23 @@
         <v>43617</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jun-19</v>
       </c>
       <c r="J12" s="7">
-        <f t="array" aca="1" ref="J12:K12" ca="1">_xll.QDates_DatesForPeriodCode(I12)</f>
+        <f t="array" ref="J12:K12">_xll.QDates_DatesForPeriodCode(I12)</f>
         <v>43617</v>
       </c>
       <c r="K12" s="7">
-        <f ca="1"/>
         <v>43646</v>
       </c>
       <c r="L12" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K12,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K12,"Friday",1)</f>
         <v>43644</v>
       </c>
       <c r="M12">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L12)</f>
-        <v>85.579401697812699</v>
+        <v>85.571153298951913</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1049,24 +1032,23 @@
         <v>43647</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jul-19</v>
       </c>
       <c r="J13" s="7">
-        <f t="array" aca="1" ref="J13:K13" ca="1">_xll.QDates_DatesForPeriodCode(I13)</f>
+        <f t="array" ref="J13:K13">_xll.QDates_DatesForPeriodCode(I13)</f>
         <v>43647</v>
       </c>
       <c r="K13" s="7">
-        <f ca="1"/>
         <v>43677</v>
       </c>
       <c r="L13" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K13,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K13,"Friday",1)</f>
         <v>43672</v>
       </c>
       <c r="M13">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L13)</f>
-        <v>85.425449084650381</v>
+        <v>85.420526011608899</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1074,24 +1056,23 @@
         <v>43678</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Aug-19</v>
       </c>
       <c r="J14" s="7">
-        <f t="array" aca="1" ref="J14:K14" ca="1">_xll.QDates_DatesForPeriodCode(I14)</f>
+        <f t="array" ref="J14:K14">_xll.QDates_DatesForPeriodCode(I14)</f>
         <v>43678</v>
       </c>
       <c r="K14" s="7">
-        <f ca="1"/>
         <v>43708</v>
       </c>
       <c r="L14" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K14,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K14,"Friday",1)</f>
         <v>43707</v>
       </c>
       <c r="M14">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L14)</f>
-        <v>85.291039351148768</v>
+        <v>85.291216799130837</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1099,24 +1080,23 @@
         <v>43709</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Sep-19</v>
       </c>
       <c r="J15" s="7">
-        <f t="array" aca="1" ref="J15:K15" ca="1">_xll.QDates_DatesForPeriodCode(I15)</f>
+        <f t="array" ref="J15:K15">_xll.QDates_DatesForPeriodCode(I15)</f>
         <v>43709</v>
       </c>
       <c r="K15" s="7">
-        <f ca="1"/>
         <v>43738</v>
       </c>
       <c r="L15" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K15,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K15,"Friday",1)</f>
         <v>43735</v>
       </c>
       <c r="M15">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L15)</f>
-        <v>85.183511564347469</v>
+        <v>85.187769429148389</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1124,24 +1104,23 @@
         <v>43739</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Oct-19</v>
       </c>
       <c r="J16" s="7">
-        <f t="array" aca="1" ref="J16:K16" ca="1">_xll.QDates_DatesForPeriodCode(I16)</f>
+        <f t="array" ref="J16:K16">_xll.QDates_DatesForPeriodCode(I16)</f>
         <v>43739</v>
       </c>
       <c r="K16" s="7">
-        <f ca="1"/>
         <v>43769</v>
       </c>
       <c r="L16" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K16,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K16,"Friday",1)</f>
         <v>43763</v>
       </c>
       <c r="M16">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L16)</f>
-        <v>84.924017870220723</v>
+        <v>84.92648679615607</v>
       </c>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
@@ -1149,24 +1128,23 @@
         <v>43770</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Nov-19</v>
       </c>
       <c r="J17" s="7">
-        <f t="array" aca="1" ref="J17:K17" ca="1">_xll.QDates_DatesForPeriodCode(I17)</f>
+        <f t="array" ref="J17:K17">_xll.QDates_DatesForPeriodCode(I17)</f>
         <v>43770</v>
       </c>
       <c r="K17" s="7">
-        <f ca="1"/>
         <v>43799</v>
       </c>
       <c r="L17" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K17,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K17,"Friday",1)</f>
         <v>43798</v>
       </c>
       <c r="M17">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L17)</f>
-        <v>84.576855866463461</v>
+        <v>84.576208215464192</v>
       </c>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
@@ -1174,24 +1152,23 @@
         <v>43800</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Dec-19</v>
       </c>
       <c r="J18" s="7">
-        <f t="array" aca="1" ref="J18:K18" ca="1">_xll.QDates_DatesForPeriodCode(I18)</f>
+        <f t="array" ref="J18:K18">_xll.QDates_DatesForPeriodCode(I18)</f>
         <v>43800</v>
       </c>
       <c r="K18" s="7">
-        <f ca="1"/>
         <v>43830</v>
       </c>
       <c r="L18" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K18,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K18,"Friday",1)</f>
         <v>43826</v>
       </c>
       <c r="M18">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L18)</f>
-        <v>84.299126263457666</v>
+        <v>84.295985350910698</v>
       </c>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
@@ -1199,24 +1176,23 @@
         <v>43831</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jan-20</v>
       </c>
       <c r="J19" s="7">
-        <f t="array" aca="1" ref="J19:K19" ca="1">_xll.QDates_DatesForPeriodCode(I19)</f>
+        <f t="array" ref="J19:K19">_xll.QDates_DatesForPeriodCode(I19)</f>
         <v>43831</v>
       </c>
       <c r="K19" s="7">
-        <f ca="1"/>
         <v>43861</v>
       </c>
       <c r="L19" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K19,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K19,"Friday",1)</f>
         <v>43861</v>
       </c>
       <c r="M19">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L19)</f>
-        <v>83.876245977693188</v>
+        <v>83.8718171786917</v>
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
@@ -1224,24 +1200,23 @@
         <v>43862</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Feb-20</v>
       </c>
       <c r="J20" s="7">
-        <f t="array" aca="1" ref="J20:K20" ca="1">_xll.QDates_DatesForPeriodCode(I20)</f>
+        <f t="array" ref="J20:K20">_xll.QDates_DatesForPeriodCode(I20)</f>
         <v>43862</v>
       </c>
       <c r="K20" s="7">
-        <f ca="1"/>
         <v>43890</v>
       </c>
       <c r="L20" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K20,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K20,"Friday",1)</f>
         <v>43889</v>
       </c>
       <c r="M20">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L20)</f>
-        <v>83.530125668358281</v>
+        <v>83.524855328242751</v>
       </c>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
@@ -1249,24 +1224,23 @@
         <v>43891</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Mar-20</v>
       </c>
       <c r="J21" s="7">
-        <f t="array" aca="1" ref="J21:K21" ca="1">_xll.QDates_DatesForPeriodCode(I21)</f>
+        <f t="array" ref="J21:K21">_xll.QDates_DatesForPeriodCode(I21)</f>
         <v>43891</v>
       </c>
       <c r="K21" s="7">
-        <f ca="1"/>
         <v>43921</v>
       </c>
       <c r="L21" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K21,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K21,"Friday",1)</f>
         <v>43917</v>
       </c>
       <c r="M21">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L21)</f>
-        <v>83.184005359023388</v>
+        <v>83.177893477793802</v>
       </c>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
@@ -1274,24 +1248,23 @@
         <v>43922</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Apr-20</v>
       </c>
       <c r="J22" s="7">
-        <f t="array" aca="1" ref="J22:K22" ca="1">_xll.QDates_DatesForPeriodCode(I22)</f>
+        <f t="array" ref="J22:K22">_xll.QDates_DatesForPeriodCode(I22)</f>
         <v>43922</v>
       </c>
       <c r="K22" s="7">
-        <f ca="1"/>
         <v>43951</v>
       </c>
       <c r="L22" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K22,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K22,"Friday",1)</f>
         <v>43945</v>
       </c>
       <c r="M22">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L22)</f>
-        <v>82.837885049688481</v>
+        <v>82.830931627344839</v>
       </c>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
@@ -1299,24 +1272,23 @@
         <v>43952</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>May-20</v>
       </c>
       <c r="J23" s="7">
-        <f t="array" aca="1" ref="J23:K23" ca="1">_xll.QDates_DatesForPeriodCode(I23)</f>
+        <f t="array" ref="J23:K23">_xll.QDates_DatesForPeriodCode(I23)</f>
         <v>43952</v>
       </c>
       <c r="K23" s="7">
-        <f ca="1"/>
         <v>43982</v>
       </c>
       <c r="L23" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K23,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K23,"Friday",1)</f>
         <v>43980</v>
       </c>
       <c r="M23">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L23)</f>
-        <v>82.405234663019854</v>
+        <v>82.397229314283649</v>
       </c>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.25">
@@ -1324,24 +1296,23 @@
         <v>43983</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jun-20</v>
       </c>
       <c r="J24" s="7">
-        <f t="array" aca="1" ref="J24:K24" ca="1">_xll.QDates_DatesForPeriodCode(I24)</f>
+        <f t="array" ref="J24:K24">_xll.QDates_DatesForPeriodCode(I24)</f>
         <v>43983</v>
       </c>
       <c r="K24" s="7">
-        <f ca="1"/>
         <v>44012</v>
       </c>
       <c r="L24" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K24,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K24,"Friday",1)</f>
         <v>44008</v>
       </c>
       <c r="M24">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L24)</f>
-        <v>82.059114353684947</v>
+        <v>82.0502674638347</v>
       </c>
     </row>
     <row r="25" spans="8:13" x14ac:dyDescent="0.25">
@@ -1349,24 +1320,23 @@
         <v>44013</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jul-20</v>
       </c>
       <c r="J25" s="7">
-        <f t="array" aca="1" ref="J25:K25" ca="1">_xll.QDates_DatesForPeriodCode(I25)</f>
+        <f t="array" ref="J25:K25">_xll.QDates_DatesForPeriodCode(I25)</f>
         <v>44013</v>
       </c>
       <c r="K25" s="7">
-        <f ca="1"/>
         <v>44043</v>
       </c>
       <c r="L25" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K25,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K25,"Friday",1)</f>
         <v>44043</v>
       </c>
       <c r="M25">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L25)</f>
-        <v>81.626463967016321</v>
+        <v>81.616565150773511</v>
       </c>
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.25">
@@ -1374,24 +1344,23 @@
         <v>44044</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Aug-20</v>
       </c>
       <c r="J26" s="7">
-        <f t="array" aca="1" ref="J26:K26" ca="1">_xll.QDates_DatesForPeriodCode(I26)</f>
+        <f t="array" ref="J26:K26">_xll.QDates_DatesForPeriodCode(I26)</f>
         <v>44044</v>
       </c>
       <c r="K26" s="7">
-        <f ca="1"/>
         <v>44074</v>
       </c>
       <c r="L26" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K26,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K26,"Friday",1)</f>
         <v>44071</v>
       </c>
       <c r="M26">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L26)</f>
-        <v>81.280343657681414</v>
+        <v>81.269603300324562</v>
       </c>
     </row>
     <row r="27" spans="8:13" x14ac:dyDescent="0.25">
@@ -1399,24 +1368,23 @@
         <v>44075</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Sep-20</v>
       </c>
       <c r="J27" s="7">
-        <f t="array" aca="1" ref="J27:K27" ca="1">_xll.QDates_DatesForPeriodCode(I27)</f>
+        <f t="array" ref="J27:K27">_xll.QDates_DatesForPeriodCode(I27)</f>
         <v>44075</v>
       </c>
       <c r="K27" s="7">
-        <f ca="1"/>
         <v>44104</v>
       </c>
       <c r="L27" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K27,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K27,"Friday",1)</f>
         <v>44099</v>
       </c>
       <c r="M27">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L27)</f>
-        <v>80.934223348346507</v>
+        <v>80.922641449875599</v>
       </c>
     </row>
     <row r="28" spans="8:13" x14ac:dyDescent="0.25">
@@ -1424,24 +1392,23 @@
         <v>44105</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Oct-20</v>
       </c>
       <c r="J28" s="7">
-        <f t="array" aca="1" ref="J28:K28" ca="1">_xll.QDates_DatesForPeriodCode(I28)</f>
+        <f t="array" ref="J28:K28">_xll.QDates_DatesForPeriodCode(I28)</f>
         <v>44105</v>
       </c>
       <c r="K28" s="7">
-        <f ca="1"/>
         <v>44135</v>
       </c>
       <c r="L28" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K28,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K28,"Friday",1)</f>
         <v>44134</v>
       </c>
       <c r="M28">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L28)</f>
-        <v>80.50157296167788</v>
+        <v>80.488939136814409</v>
       </c>
     </row>
     <row r="29" spans="8:13" x14ac:dyDescent="0.25">
@@ -1449,24 +1416,23 @@
         <v>44136</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Nov-20</v>
       </c>
       <c r="J29" s="7">
-        <f t="array" aca="1" ref="J29:K29" ca="1">_xll.QDates_DatesForPeriodCode(I29)</f>
+        <f t="array" ref="J29:K29">_xll.QDates_DatesForPeriodCode(I29)</f>
         <v>44136</v>
       </c>
       <c r="K29" s="7">
-        <f ca="1"/>
         <v>44165</v>
       </c>
       <c r="L29" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K29,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K29,"Friday",1)</f>
         <v>44162</v>
       </c>
       <c r="M29">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L29)</f>
-        <v>80.155452652342973</v>
+        <v>80.14197728636546</v>
       </c>
     </row>
     <row r="30" spans="8:13" x14ac:dyDescent="0.25">
@@ -1474,24 +1440,23 @@
         <v>44166</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Dec-20</v>
       </c>
       <c r="J30" s="7">
-        <f t="array" aca="1" ref="J30:K30" ca="1">_xll.QDates_DatesForPeriodCode(I30)</f>
+        <f t="array" ref="J30:K30">_xll.QDates_DatesForPeriodCode(I30)</f>
         <v>44166</v>
       </c>
       <c r="K30" s="7">
-        <f ca="1"/>
         <v>44196</v>
       </c>
       <c r="L30" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K30,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K30,"Friday",1)</f>
         <v>44190</v>
       </c>
       <c r="M30">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L30)</f>
-        <v>79.809332343008066</v>
+        <v>79.795015435916497</v>
       </c>
     </row>
     <row r="31" spans="8:13" x14ac:dyDescent="0.25">
@@ -1499,24 +1464,23 @@
         <v>44197</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jan-21</v>
       </c>
       <c r="J31" s="7">
-        <f t="array" aca="1" ref="J31:K31" ca="1">_xll.QDates_DatesForPeriodCode(I31)</f>
+        <f t="array" ref="J31:K31">_xll.QDates_DatesForPeriodCode(I31)</f>
         <v>44197</v>
       </c>
       <c r="K31" s="7">
-        <f ca="1"/>
         <v>44227</v>
       </c>
       <c r="L31" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K31,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K31,"Friday",1)</f>
         <v>44225</v>
       </c>
       <c r="M31">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L31)</f>
-        <v>79.580489180027442</v>
+        <v>79.567560706984466</v>
       </c>
     </row>
     <row r="32" spans="8:13" x14ac:dyDescent="0.25">
@@ -1524,24 +1488,23 @@
         <v>44228</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Feb-21</v>
       </c>
       <c r="J32" s="7">
-        <f t="array" aca="1" ref="J32:K32" ca="1">_xll.QDates_DatesForPeriodCode(I32)</f>
+        <f t="array" ref="J32:K32">_xll.QDates_DatesForPeriodCode(I32)</f>
         <v>44228</v>
       </c>
       <c r="K32" s="7">
-        <f ca="1"/>
         <v>44255</v>
       </c>
       <c r="L32" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K32,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K32,"Friday",1)</f>
         <v>44253</v>
       </c>
       <c r="M32">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L32)</f>
-        <v>79.431148259080956</v>
+        <v>79.419734455005056</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
@@ -1549,24 +1512,23 @@
         <v>44256</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Mar-21</v>
       </c>
       <c r="J33" s="7">
-        <f t="array" aca="1" ref="J33:K33" ca="1">_xll.QDates_DatesForPeriodCode(I33)</f>
+        <f t="array" ref="J33:K33">_xll.QDates_DatesForPeriodCode(I33)</f>
         <v>44256</v>
       </c>
       <c r="K33" s="7">
-        <f ca="1"/>
         <v>44286</v>
       </c>
       <c r="L33" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K33,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K33,"Friday",1)</f>
         <v>44281</v>
       </c>
       <c r="M33">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L33)</f>
-        <v>79.28180733813447</v>
+        <v>79.271908203025632</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
@@ -1574,24 +1536,23 @@
         <v>44287</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Apr-21</v>
       </c>
       <c r="J34" s="7">
-        <f t="array" aca="1" ref="J34:K34" ca="1">_xll.QDates_DatesForPeriodCode(I34)</f>
+        <f t="array" ref="J34:K34">_xll.QDates_DatesForPeriodCode(I34)</f>
         <v>44287</v>
       </c>
       <c r="K34" s="7">
-        <f ca="1"/>
         <v>44316</v>
       </c>
       <c r="L34" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K34,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K34,"Friday",1)</f>
         <v>44316</v>
       </c>
       <c r="M34">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L34)</f>
-        <v>79.095131186951349</v>
+        <v>79.087125388051362</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
@@ -1599,24 +1560,23 @@
         <v>44317</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>May-21</v>
       </c>
       <c r="J35" s="7">
-        <f t="array" aca="1" ref="J35:K35" ca="1">_xll.QDates_DatesForPeriodCode(I35)</f>
+        <f t="array" ref="J35:K35">_xll.QDates_DatesForPeriodCode(I35)</f>
         <v>44317</v>
       </c>
       <c r="K35" s="7">
-        <f ca="1"/>
         <v>44347</v>
       </c>
       <c r="L35" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K35,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K35,"Friday",1)</f>
         <v>44344</v>
       </c>
       <c r="M35">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L35)</f>
-        <v>78.945790266004863</v>
+        <v>78.939299136071938</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
@@ -1624,24 +1584,23 @@
         <v>44348</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jun-21</v>
       </c>
       <c r="J36" s="7">
-        <f t="array" aca="1" ref="J36:K36" ca="1">_xll.QDates_DatesForPeriodCode(I36)</f>
+        <f t="array" ref="J36:K36">_xll.QDates_DatesForPeriodCode(I36)</f>
         <v>44348</v>
       </c>
       <c r="K36" s="7">
-        <f ca="1"/>
         <v>44377</v>
       </c>
       <c r="L36" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K36,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K36,"Friday",1)</f>
         <v>44372</v>
       </c>
       <c r="M36">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L36)</f>
-        <v>78.796449345058377</v>
+        <v>78.791472884092514</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
@@ -1649,24 +1608,23 @@
         <v>44378</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jul-21</v>
       </c>
       <c r="J37" s="7">
-        <f t="array" aca="1" ref="J37:K37" ca="1">_xll.QDates_DatesForPeriodCode(I37)</f>
+        <f t="array" ref="J37:K37">_xll.QDates_DatesForPeriodCode(I37)</f>
         <v>44378</v>
       </c>
       <c r="K37" s="7">
-        <f ca="1"/>
         <v>44408</v>
       </c>
       <c r="L37" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K37,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K37,"Friday",1)</f>
         <v>44407</v>
       </c>
       <c r="M37">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L37)</f>
-        <v>78.60977319387527</v>
+        <v>78.606690069118244</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
@@ -1674,24 +1632,23 @@
         <v>44409</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Aug-21</v>
       </c>
       <c r="J38" s="7">
-        <f t="array" aca="1" ref="J38:K38" ca="1">_xll.QDates_DatesForPeriodCode(I38)</f>
+        <f t="array" ref="J38:K38">_xll.QDates_DatesForPeriodCode(I38)</f>
         <v>44409</v>
       </c>
       <c r="K38" s="7">
-        <f ca="1"/>
         <v>44439</v>
       </c>
       <c r="L38" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K38,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K38,"Friday",1)</f>
         <v>44435</v>
       </c>
       <c r="M38">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L38)</f>
-        <v>78.460432272928784</v>
+        <v>78.45886381713882</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
@@ -1699,24 +1656,23 @@
         <v>44440</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Sep-21</v>
       </c>
       <c r="J39" s="7">
-        <f t="array" aca="1" ref="J39:K39" ca="1">_xll.QDates_DatesForPeriodCode(I39)</f>
+        <f t="array" ref="J39:K39">_xll.QDates_DatesForPeriodCode(I39)</f>
         <v>44440</v>
       </c>
       <c r="K39" s="7">
-        <f ca="1"/>
         <v>44469</v>
       </c>
       <c r="L39" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K39,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K39,"Friday",1)</f>
         <v>44463</v>
       </c>
       <c r="M39">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L39)</f>
-        <v>78.311091351982299</v>
+        <v>78.311037565159396</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
@@ -1724,24 +1680,23 @@
         <v>44470</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Oct-21</v>
       </c>
       <c r="J40" s="7">
-        <f t="array" aca="1" ref="J40:K40" ca="1">_xll.QDates_DatesForPeriodCode(I40)</f>
+        <f t="array" ref="J40:K40">_xll.QDates_DatesForPeriodCode(I40)</f>
         <v>44470</v>
       </c>
       <c r="K40" s="7">
-        <f ca="1"/>
         <v>44500</v>
       </c>
       <c r="L40" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K40,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K40,"Friday",1)</f>
         <v>44498</v>
       </c>
       <c r="M40">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L40)</f>
-        <v>78.124415200799177</v>
+        <v>78.126254750185126</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
@@ -1749,24 +1704,23 @@
         <v>44501</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Nov-21</v>
       </c>
       <c r="J41" s="7">
-        <f t="array" aca="1" ref="J41:K41" ca="1">_xll.QDates_DatesForPeriodCode(I41)</f>
+        <f t="array" ref="J41:K41">_xll.QDates_DatesForPeriodCode(I41)</f>
         <v>44501</v>
       </c>
       <c r="K41" s="7">
-        <f ca="1"/>
         <v>44530</v>
       </c>
       <c r="L41" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K41,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K41,"Friday",1)</f>
         <v>44526</v>
       </c>
       <c r="M41">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L41)</f>
-        <v>77.975074279852691</v>
+        <v>77.978428498205702</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
@@ -1774,24 +1728,23 @@
         <v>44531</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Dec-21</v>
       </c>
       <c r="J42" s="7">
-        <f t="array" aca="1" ref="J42:K42" ca="1">_xll.QDates_DatesForPeriodCode(I42)</f>
+        <f t="array" ref="J42:K42">_xll.QDates_DatesForPeriodCode(I42)</f>
         <v>44531</v>
       </c>
       <c r="K42" s="7">
-        <f ca="1"/>
         <v>44561</v>
       </c>
       <c r="L42" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K42,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K42,"Friday",1)</f>
         <v>44561</v>
       </c>
       <c r="M42">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L42)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">
@@ -1799,24 +1752,23 @@
         <v>44562</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jan-22</v>
       </c>
       <c r="J43" s="7">
-        <f t="array" aca="1" ref="J43:K43" ca="1">_xll.QDates_DatesForPeriodCode(I43)</f>
+        <f t="array" ref="J43:K43">_xll.QDates_DatesForPeriodCode(I43)</f>
         <v>44562</v>
       </c>
       <c r="K43" s="7">
-        <f ca="1"/>
         <v>44592</v>
       </c>
       <c r="L43" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K43,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K43,"Friday",1)</f>
         <v>44589</v>
       </c>
       <c r="M43">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L43)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.25">
@@ -1824,24 +1776,23 @@
         <v>44593</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Feb-22</v>
       </c>
       <c r="J44" s="7">
-        <f t="array" aca="1" ref="J44:K44" ca="1">_xll.QDates_DatesForPeriodCode(I44)</f>
+        <f t="array" ref="J44:K44">_xll.QDates_DatesForPeriodCode(I44)</f>
         <v>44593</v>
       </c>
       <c r="K44" s="7">
-        <f ca="1"/>
         <v>44620</v>
       </c>
       <c r="L44" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K44,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K44,"Friday",1)</f>
         <v>44617</v>
       </c>
       <c r="M44">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L44)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.25">
@@ -1849,24 +1800,23 @@
         <v>44621</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Mar-22</v>
       </c>
       <c r="J45" s="7">
-        <f t="array" aca="1" ref="J45:K45" ca="1">_xll.QDates_DatesForPeriodCode(I45)</f>
+        <f t="array" ref="J45:K45">_xll.QDates_DatesForPeriodCode(I45)</f>
         <v>44621</v>
       </c>
       <c r="K45" s="7">
-        <f ca="1"/>
         <v>44651</v>
       </c>
       <c r="L45" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K45,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K45,"Friday",1)</f>
         <v>44645</v>
       </c>
       <c r="M45">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L45)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.25">
@@ -1874,24 +1824,23 @@
         <v>44652</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Apr-22</v>
       </c>
       <c r="J46" s="7">
-        <f t="array" aca="1" ref="J46:K46" ca="1">_xll.QDates_DatesForPeriodCode(I46)</f>
+        <f t="array" ref="J46:K46">_xll.QDates_DatesForPeriodCode(I46)</f>
         <v>44652</v>
       </c>
       <c r="K46" s="7">
-        <f ca="1"/>
         <v>44681</v>
       </c>
       <c r="L46" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K46,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K46,"Friday",1)</f>
         <v>44680</v>
       </c>
       <c r="M46">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L46)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.25">
@@ -1899,24 +1848,23 @@
         <v>44682</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>May-22</v>
       </c>
       <c r="J47" s="7">
-        <f t="array" aca="1" ref="J47:K47" ca="1">_xll.QDates_DatesForPeriodCode(I47)</f>
+        <f t="array" ref="J47:K47">_xll.QDates_DatesForPeriodCode(I47)</f>
         <v>44682</v>
       </c>
       <c r="K47" s="7">
-        <f ca="1"/>
         <v>44712</v>
       </c>
       <c r="L47" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K47,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K47,"Friday",1)</f>
         <v>44708</v>
       </c>
       <c r="M47">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L47)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.25">
@@ -1924,24 +1872,23 @@
         <v>44713</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jun-22</v>
       </c>
       <c r="J48" s="7">
-        <f t="array" aca="1" ref="J48:K48" ca="1">_xll.QDates_DatesForPeriodCode(I48)</f>
+        <f t="array" ref="J48:K48">_xll.QDates_DatesForPeriodCode(I48)</f>
         <v>44713</v>
       </c>
       <c r="K48" s="7">
-        <f ca="1"/>
         <v>44742</v>
       </c>
       <c r="L48" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K48,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K48,"Friday",1)</f>
         <v>44736</v>
       </c>
       <c r="M48">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L48)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.25">
@@ -1949,24 +1896,23 @@
         <v>44743</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Jul-22</v>
       </c>
       <c r="J49" s="7">
-        <f t="array" aca="1" ref="J49:K49" ca="1">_xll.QDates_DatesForPeriodCode(I49)</f>
+        <f t="array" ref="J49:K49">_xll.QDates_DatesForPeriodCode(I49)</f>
         <v>44743</v>
       </c>
       <c r="K49" s="7">
-        <f ca="1"/>
         <v>44773</v>
       </c>
       <c r="L49" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K49,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K49,"Friday",1)</f>
         <v>44771</v>
       </c>
       <c r="M49">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L49)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.25">
@@ -1974,24 +1920,23 @@
         <v>44774</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Aug-22</v>
       </c>
       <c r="J50" s="7">
-        <f t="array" aca="1" ref="J50:K50" ca="1">_xll.QDates_DatesForPeriodCode(I50)</f>
+        <f t="array" ref="J50:K50">_xll.QDates_DatesForPeriodCode(I50)</f>
         <v>44774</v>
       </c>
       <c r="K50" s="7">
-        <f ca="1"/>
         <v>44804</v>
       </c>
       <c r="L50" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K50,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K50,"Friday",1)</f>
         <v>44799</v>
       </c>
       <c r="M50">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L50)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.25">
@@ -1999,24 +1944,23 @@
         <v>44805</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Sep-22</v>
       </c>
       <c r="J51" s="7">
-        <f t="array" aca="1" ref="J51:K51" ca="1">_xll.QDates_DatesForPeriodCode(I51)</f>
+        <f t="array" ref="J51:K51">_xll.QDates_DatesForPeriodCode(I51)</f>
         <v>44805</v>
       </c>
       <c r="K51" s="7">
-        <f ca="1"/>
         <v>44834</v>
       </c>
       <c r="L51" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K51,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K51,"Friday",1)</f>
         <v>44834</v>
       </c>
       <c r="M51">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L51)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.25">
@@ -2024,24 +1968,23 @@
         <v>44835</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Oct-22</v>
       </c>
       <c r="J52" s="7">
-        <f t="array" aca="1" ref="J52:K52" ca="1">_xll.QDates_DatesForPeriodCode(I52)</f>
+        <f t="array" ref="J52:K52">_xll.QDates_DatesForPeriodCode(I52)</f>
         <v>44835</v>
       </c>
       <c r="K52" s="7">
-        <f ca="1"/>
         <v>44865</v>
       </c>
       <c r="L52" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K52,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K52,"Friday",1)</f>
         <v>44862</v>
       </c>
       <c r="M52">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L52)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.25">
@@ -2049,24 +1992,23 @@
         <v>44866</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Nov-22</v>
       </c>
       <c r="J53" s="7">
-        <f t="array" aca="1" ref="J53:K53" ca="1">_xll.QDates_DatesForPeriodCode(I53)</f>
+        <f t="array" ref="J53:K53">_xll.QDates_DatesForPeriodCode(I53)</f>
         <v>44866</v>
       </c>
       <c r="K53" s="7">
-        <f ca="1"/>
         <v>44895</v>
       </c>
       <c r="L53" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K53,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K53,"Friday",1)</f>
         <v>44890</v>
       </c>
       <c r="M53">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L53)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.25">
@@ -2074,24 +2016,23 @@
         <v>44896</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Dec-22</v>
       </c>
       <c r="J54" s="7">
-        <f t="array" aca="1" ref="J54:K54" ca="1">_xll.QDates_DatesForPeriodCode(I54)</f>
+        <f t="array" ref="J54:K54">_xll.QDates_DatesForPeriodCode(I54)</f>
         <v>44896</v>
       </c>
       <c r="K54" s="7">
-        <f ca="1"/>
         <v>44926</v>
       </c>
       <c r="L54" s="7">
-        <f ca="1">_xll.QDates_SpecificLastWeekday(K54,"Friday",1)</f>
+        <f>_xll.QDates_SpecificLastWeekday(K54,"Friday",1)</f>
         <v>44925</v>
       </c>
       <c r="M54">
         <f ca="1">_xll.QCurves_GetPrice($O$5,L54)</f>
-        <v>77.788398128669584</v>
+        <v>77.793645683231432</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
